--- a/ESERCIZIO_M2-2-1_dati.xlsx
+++ b/ESERCIZIO_M2-2-1_dati.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melli\Documents\1 - Workspace\EPICODE\DAPT0824-W2-layout-di-pagina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0372E83C-49F1-47C2-8F7E-3EC134866CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0677E74A-3007-4266-A862-E2C3F5A11060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>Azienda</t>
   </si>
@@ -94,15 +94,20 @@
   <si>
     <t>Vibrazione</t>
   </si>
+  <si>
+    <t>Spesa Totale</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$€-2]\ #,##0.00;[Red]\-[$€-2]\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -119,6 +124,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -140,17 +151,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -164,6 +178,1863 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Totale spesa per prodotti</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Prodotti!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Totale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Prodotti!$B$2:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Tecnologia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cibo</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pannelli</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Quanti</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Infinito</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Crema</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Acqua</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Orizzonte</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Pianeta</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Vibrazione</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Prodotti!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>[$€-2]\ #,##0.00;[Red]\-[$€-2]\ #,##0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9750</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11550</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9089-48A9-8D4E-57CE4295FA92}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="901790016"/>
+        <c:axId val="901767456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="901790016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="901767456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="901767456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="[$€-2]\ #,##0.00;[Red]\-[$€-2]\ #,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="901790016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Totale spesa per aziende</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Prodotti!$G$2:$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Tech Innovations Ltd.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SolarTech Solutions</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AquaLux Dynamics</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EcoVibe Solutions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Prodotti!$H$2:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25575</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37725</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-15C8-475C-A0DC-F8C6CCFFD8A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="901794816"/>
+        <c:axId val="901776096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="901794816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="901776096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="901776096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="901794816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04A970D4-FE19-A015-8803-43932CCC1C57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F55F54-6622-DFD7-BA3C-BEB735A3A9F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -370,7 +2241,7 @@
   <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -380,6 +2251,8 @@
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -399,8 +2272,12 @@
         <v>4</v>
       </c>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -420,7 +2297,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -437,8 +2314,15 @@
         <f>D2*C2</f>
         <v>7875</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5">
+        <f>SUMIF(A2:A11,G2,E2:E11)</f>
+        <v>25575</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -455,8 +2339,15 @@
         <f t="shared" ref="E3:E11" si="0">D3*C3</f>
         <v>10200</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" ref="H3:H5" si="1">SUMIF(A3:A12,G3,E3:E12)</f>
+        <v>31100</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -473,8 +2364,15 @@
         <f t="shared" si="0"/>
         <v>9800</v>
       </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" si="1"/>
+        <v>37725</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -491,8 +2389,15 @@
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="1"/>
+        <v>13500</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -510,7 +2415,7 @@
         <v>9750</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -528,7 +2433,7 @@
         <v>13125</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -546,7 +2451,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -564,7 +2469,7 @@
         <v>11550</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -582,7 +2487,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -602,10 +2507,11 @@
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;CSpese recenti</oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ESERCIZIO_M2-2-1_dati.xlsx
+++ b/ESERCIZIO_M2-2-1_dati.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melli\Documents\1 - Workspace\EPICODE\DAPT0824-W2-layout-di-pagina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0677E74A-3007-4266-A862-E2C3F5A11060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF4261E-45C4-4A25-A11B-E94B52997A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prodotti" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Prodotti!$A$1:$E$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Prodotti!$A$1:$K$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -657,7 +657,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Prodotti!$G$2:$G$5</c:f>
+              <c:f>Prodotti!$A$14:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -677,7 +677,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Prodotti!$H$2:$H$5</c:f>
+              <c:f>Prodotti!$B$14:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1964,16 +1964,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2000,16 +2000,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1057275</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2238,16 +2238,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -2272,12 +2272,6 @@
         <v>4</v>
       </c>
       <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -2314,13 +2308,6 @@
         <f>D2*C2</f>
         <v>7875</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="5">
-        <f>SUMIF(A2:A11,G2,E2:E11)</f>
-        <v>25575</v>
-      </c>
     </row>
     <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -2336,15 +2323,8 @@
         <v>8.5</v>
       </c>
       <c r="E3" s="4">
-        <f t="shared" ref="E3:E11" si="0">D3*C3</f>
+        <f t="shared" ref="E3:E14" si="0">D3*C3</f>
         <v>10200</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="5">
-        <f t="shared" ref="H3:H5" si="1">SUMIF(A3:A12,G3,E3:E12)</f>
-        <v>31100</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -2364,13 +2344,6 @@
         <f t="shared" si="0"/>
         <v>9800</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="5">
-        <f t="shared" si="1"/>
-        <v>37725</v>
-      </c>
     </row>
     <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -2389,13 +2362,6 @@
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="5">
-        <f t="shared" si="1"/>
-        <v>13500</v>
-      </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -2502,6 +2468,50 @@
       </c>
       <c r="E11" s="4">
         <f t="shared" si="0"/>
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="5">
+        <f>SUMIF(A2:A11,A14,E2:E11)</f>
+        <v>25575</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="5">
+        <f>SUMIF(A3:A12,A15,E3:E12)</f>
+        <v>31100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5">
+        <f>SUMIF(A4:A12,A16,E4:E13)</f>
+        <v>37725</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="5">
+        <f>SUMIF(A5:A12,A17,E5:E14)</f>
         <v>13500</v>
       </c>
     </row>
@@ -2509,9 +2519,20 @@
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;CSpese recenti</oddHeader>
+  <headerFooter differentOddEven="1" differentFirst="1">
+    <oddHeader>&amp;CGrafico spese per prodotti</oddHeader>
+    <oddFooter>&amp;L&amp;P&amp;R&amp;D</oddFooter>
+    <evenHeader>&amp;CGrafico per aziende</evenHeader>
+    <evenFooter>&amp;L&amp;P&amp;R&amp;D</evenFooter>
+    <firstHeader>&amp;CSpese recenti</firstHeader>
+    <firstFooter>&amp;L&amp;P&amp;R&amp;D</firstFooter>
   </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="17" max="10" man="1"/>
+  </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="5" max="32" man="1"/>
+  </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ESERCIZIO_M2-2-1_dati.xlsx
+++ b/ESERCIZIO_M2-2-1_dati.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melli\Documents\1 - Workspace\EPICODE\DAPT0824-W2-layout-di-pagina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF4261E-45C4-4A25-A11B-E94B52997A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E465D559-5F3D-4CA4-BF92-FBADA8CAF05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2240,8 +2240,8 @@
   </sheetPr>
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2323,7 +2323,7 @@
         <v>8.5</v>
       </c>
       <c r="E3" s="4">
-        <f t="shared" ref="E3:E14" si="0">D3*C3</f>
+        <f t="shared" ref="E3:E11" si="0">D3*C3</f>
         <v>10200</v>
       </c>
     </row>
@@ -2484,7 +2484,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="5">
-        <f>SUMIF(A2:A11,A14,E2:E11)</f>
+        <f>SUMIF($A$2:$A$11,A14,$E$2:$E$11)</f>
         <v>25575</v>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="5">
-        <f>SUMIF(A3:A12,A15,E3:E12)</f>
+        <f t="shared" ref="B15:B17" si="1">SUMIF($A$2:$A$11,A15,$E$2:$E$11)</f>
         <v>31100</v>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="5">
-        <f>SUMIF(A4:A12,A16,E4:E13)</f>
+        <f t="shared" si="1"/>
         <v>37725</v>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="5">
-        <f>SUMIF(A5:A12,A17,E5:E14)</f>
+        <f t="shared" si="1"/>
         <v>13500</v>
       </c>
     </row>
